--- a/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/▼【sv23提出時の注意点／2024年度後期／ゲーム制作】_チェックシート_ver1.xlsx
+++ b/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/▼【sv23提出時の注意点／2024年度後期／ゲーム制作】_チェックシート_ver1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work_data\ゲーム制作プロジェクト\2_試遊会前\提出チェックシート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について\②sv23提出\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D720667-DA71-4AA6-926A-85DE96E1FE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BAEC2A-48D9-4D4B-9E18-97653A4A368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="975" windowWidth="14610" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易チェックシート" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
   <si>
     <t>■提出フォルダ全体の構成</t>
     <rPh sb="1" eb="3">
@@ -2440,7 +2440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2453,20 +2453,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
@@ -2474,22 +2465,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2963,546 +2957,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="5"/>
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="5"/>
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="5"/>
+      <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6"/>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="5"/>
+      <c r="D15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="5"/>
+      <c r="D16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6"/>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="5"/>
+      <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6"/>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="5"/>
+      <c r="D18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="2:13" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="6"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="5"/>
+      <c r="D22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="6"/>
-      <c r="D23" s="9" t="s">
+      <c r="B23" s="5"/>
+      <c r="D23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="6"/>
-      <c r="D24" s="10" t="s">
+      <c r="B24" s="5"/>
+      <c r="D24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="2:13" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B28" s="6"/>
-      <c r="D28" s="9" t="s">
+      <c r="B28" s="5"/>
+      <c r="D28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B29" s="6"/>
-      <c r="D29" s="9" t="s">
+      <c r="B29" s="5"/>
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B30" s="6"/>
-      <c r="D30" s="9" t="s">
+      <c r="B30" s="5"/>
+      <c r="D30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
     </row>
     <row r="31" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B31" s="6"/>
-      <c r="D31" s="9" t="s">
+      <c r="B31" s="5"/>
+      <c r="D31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="2:13" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
     </row>
     <row r="34" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
     </row>
     <row r="35" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="6"/>
-      <c r="D35" s="10" t="s">
+      <c r="B35" s="5"/>
+      <c r="D35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="6"/>
-      <c r="D36" s="9" t="s">
+      <c r="B36" s="5"/>
+      <c r="D36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
     </row>
     <row r="39" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="12" t="s">
@@ -3521,62 +3515,62 @@
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
     </row>
     <row r="41" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="6"/>
-      <c r="D41" s="9" t="s">
+      <c r="B41" s="5"/>
+      <c r="D41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="6"/>
-      <c r="D42" s="10" t="s">
+      <c r="B42" s="5"/>
+      <c r="D42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
     </row>
     <row r="43" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
     </row>
     <row r="44" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="12" t="s">
@@ -3595,62 +3589,62 @@
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B46" s="6"/>
-      <c r="D46" s="9" t="s">
+      <c r="B46" s="5"/>
+      <c r="D46" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
     </row>
     <row r="47" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="6"/>
-      <c r="D47" s="9" t="s">
+      <c r="B47" s="5"/>
+      <c r="D47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
     </row>
     <row r="48" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
     </row>
     <row r="49" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="12" t="s">
@@ -3669,47 +3663,47 @@
       <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
     </row>
     <row r="51" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B51" s="6"/>
-      <c r="D51" s="9" t="s">
+      <c r="B51" s="5"/>
+      <c r="D51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
     </row>
     <row r="53" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="12" t="s">
@@ -3728,195 +3722,229 @@
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
     </row>
     <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="6"/>
-      <c r="D55" s="9" t="s">
+      <c r="B55" s="5"/>
+      <c r="D55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="6"/>
-      <c r="D56" s="9" t="s">
+      <c r="B56" s="5"/>
+      <c r="D56" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
     </row>
     <row r="57" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="6"/>
-      <c r="D57" s="10" t="s">
+      <c r="B57" s="5"/>
+      <c r="D57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
     </row>
     <row r="58" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
     </row>
     <row r="60" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
     </row>
     <row r="62" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
     </row>
     <row r="63" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-    </row>
-    <row r="65" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-    </row>
-    <row r="66" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+    </row>
+    <row r="65" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+    </row>
+    <row r="66" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B60:M60"/>
+    <mergeCell ref="B61:M61"/>
+    <mergeCell ref="B62:M62"/>
+    <mergeCell ref="B63:M63"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="B59:M59"/>
+    <mergeCell ref="B52:M52"/>
+    <mergeCell ref="B53:M53"/>
+    <mergeCell ref="B54:M54"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="B50:M50"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="B45:M45"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="B40:M40"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B39:M39"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="D14:M14"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A4:M4"/>
@@ -3928,56 +3956,6 @@
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="B37:M37"/>
-    <mergeCell ref="B38:M38"/>
-    <mergeCell ref="B39:M39"/>
-    <mergeCell ref="B40:M40"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="B50:M50"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="B45:M45"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="B48:M48"/>
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="B58:M58"/>
-    <mergeCell ref="B59:M59"/>
-    <mergeCell ref="B52:M52"/>
-    <mergeCell ref="B53:M53"/>
-    <mergeCell ref="B54:M54"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="B60:M60"/>
-    <mergeCell ref="B61:M61"/>
-    <mergeCell ref="B62:M62"/>
-    <mergeCell ref="B63:M63"/>
-    <mergeCell ref="B65:L65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -4003,7 +3981,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4015,621 +3993,663 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6"/>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6"/>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6"/>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="2:13" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="6"/>
-      <c r="D24" s="10" t="s">
+      <c r="B24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="6"/>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="6"/>
-      <c r="D26" s="10" t="s">
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="6"/>
-      <c r="D27" s="10" t="s">
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="6"/>
-      <c r="D28" s="10" t="s">
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-    </row>
-    <row r="29" spans="2:13" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B32" s="6"/>
-      <c r="D32" s="9" t="s">
+      <c r="B32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B33" s="6"/>
-      <c r="D33" s="9" t="s">
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B34" s="6"/>
-      <c r="D34" s="9" t="s">
+      <c r="B34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
     </row>
     <row r="35" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B35" s="6"/>
-      <c r="D35" s="9" t="s">
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B36" s="6"/>
-      <c r="D36" s="9" t="s">
+      <c r="B36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="2:13" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="6"/>
-      <c r="D40" s="10" t="s">
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="6"/>
-      <c r="D41" s="9" t="s">
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
     </row>
     <row r="43" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
     </row>
     <row r="44" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="12" t="s">
@@ -4648,77 +4668,83 @@
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="6"/>
-      <c r="D46" s="9" t="s">
+      <c r="B46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="6"/>
-      <c r="D47" s="10" t="s">
+      <c r="B47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
     </row>
     <row r="48" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="6"/>
-      <c r="D48" s="9" t="s">
+      <c r="B48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
     </row>
     <row r="50" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="12" t="s">
@@ -4737,92 +4763,100 @@
       <c r="M50" s="12"/>
     </row>
     <row r="51" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
     </row>
     <row r="52" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B52" s="6"/>
-      <c r="D52" s="9" t="s">
+      <c r="B52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
     </row>
     <row r="53" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="6"/>
-      <c r="D53" s="9" t="s">
+      <c r="B53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="6"/>
-      <c r="D54" s="9" t="s">
+      <c r="B54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="6"/>
-      <c r="D55" s="9" t="s">
+      <c r="B55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
     </row>
     <row r="57" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="12" t="s">
@@ -4841,92 +4875,92 @@
       <c r="M57" s="12"/>
     </row>
     <row r="58" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
     </row>
     <row r="59" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B59" s="6"/>
-      <c r="D59" s="9" t="s">
+      <c r="B59" s="5"/>
+      <c r="D59" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
     </row>
     <row r="60" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B60" s="6"/>
-      <c r="D60" s="9" t="s">
+      <c r="B60" s="5"/>
+      <c r="D60" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
     </row>
     <row r="61" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B61" s="6"/>
-      <c r="D61" s="9" t="s">
+      <c r="B61" s="5"/>
+      <c r="D61" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
     </row>
     <row r="62" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="6"/>
-      <c r="D62" s="9" t="s">
+      <c r="B62" s="5"/>
+      <c r="D62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
     </row>
     <row r="63" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
     </row>
     <row r="64" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="12" t="s">
@@ -4945,299 +4979,302 @@
       <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
     </row>
     <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="6"/>
-      <c r="D66" s="9" t="s">
+      <c r="B66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
     </row>
     <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="6"/>
-      <c r="D67" s="9" t="s">
+      <c r="B67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
     </row>
     <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="6"/>
-      <c r="D68" s="9" t="s">
+      <c r="B68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
     </row>
     <row r="69" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="6"/>
-      <c r="D69" s="10" t="s">
+      <c r="B69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
     </row>
     <row r="70" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="6"/>
-      <c r="D70" s="10" t="s">
+      <c r="B70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
     </row>
     <row r="71" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="6"/>
-      <c r="D71" s="10" t="s">
+      <c r="B71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
     </row>
     <row r="72" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="6"/>
-      <c r="D72" s="9" t="s">
+      <c r="B72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
     </row>
     <row r="73" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="6"/>
-      <c r="D73" s="9" t="s">
+      <c r="B73" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
     </row>
     <row r="74" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
     </row>
     <row r="76" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
     </row>
     <row r="78" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
     </row>
     <row r="79" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-    </row>
-    <row r="81" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+    </row>
+    <row r="81" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+    </row>
+    <row r="82" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="B57:M57"/>
+    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="B79:M79"/>
+    <mergeCell ref="B81:L81"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="B63:M63"/>
+    <mergeCell ref="B75:M75"/>
+    <mergeCell ref="B76:M76"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="B65:M65"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="B77:M77"/>
+    <mergeCell ref="B78:M78"/>
+    <mergeCell ref="B64:M64"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="B45:M45"/>
+    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B74:M74"/>
     <mergeCell ref="D35:M35"/>
     <mergeCell ref="D34:M34"/>
@@ -5254,41 +5291,38 @@
     <mergeCell ref="D41:M41"/>
     <mergeCell ref="B56:M56"/>
     <mergeCell ref="B42:M42"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="B45:M45"/>
-    <mergeCell ref="B51:M51"/>
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="B37:M37"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="B57:M57"/>
-    <mergeCell ref="B58:M58"/>
-    <mergeCell ref="B79:M79"/>
-    <mergeCell ref="B81:L81"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="B63:M63"/>
-    <mergeCell ref="B75:M75"/>
-    <mergeCell ref="B76:M76"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="B65:M65"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="B77:M77"/>
-    <mergeCell ref="B78:M78"/>
-    <mergeCell ref="B64:M64"/>
-    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D47:M47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B10 B46:B48 B52:B55 B32:B36 B24:B28 B14:B20 B40:B41 B59:B62 B66:B73" xr:uid="{B80DD6E0-7E27-4D86-A818-96CC3B3BEEEB}">
       <formula1>$A$75:$A$76</formula1>
     </dataValidation>
@@ -5320,607 +5354,607 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="5"/>
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="5"/>
+      <c r="D10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="5"/>
+      <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6"/>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="5"/>
+      <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="5"/>
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6"/>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="5"/>
+      <c r="D17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6"/>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="5"/>
+      <c r="D18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="5"/>
+      <c r="D19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="5"/>
+      <c r="D20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B21" s="6"/>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="5"/>
+      <c r="D21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="2:13" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="6"/>
-      <c r="D25" s="10" t="s">
+      <c r="B25" s="5"/>
+      <c r="D25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="6"/>
-      <c r="D26" s="9" t="s">
+      <c r="B26" s="5"/>
+      <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="6"/>
-      <c r="D27" s="10" t="s">
+      <c r="B27" s="5"/>
+      <c r="D27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="6"/>
-      <c r="D28" s="10" t="s">
+      <c r="B28" s="5"/>
+      <c r="D28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="6"/>
-      <c r="D29" s="10" t="s">
+      <c r="B29" s="5"/>
+      <c r="D29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="2:13" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
     </row>
     <row r="32" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B33" s="6"/>
-      <c r="D33" s="9" t="s">
+      <c r="B33" s="5"/>
+      <c r="D33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B34" s="6"/>
-      <c r="D34" s="9" t="s">
+      <c r="B34" s="5"/>
+      <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B35" s="6"/>
-      <c r="D35" s="9" t="s">
+      <c r="B35" s="5"/>
+      <c r="D35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B36" s="6"/>
-      <c r="D36" s="9" t="s">
+      <c r="B36" s="5"/>
+      <c r="D36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="2:13" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="6"/>
-      <c r="D40" s="10" t="s">
+      <c r="B40" s="5"/>
+      <c r="D40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="6"/>
-      <c r="D41" s="9" t="s">
+      <c r="B41" s="5"/>
+      <c r="D41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
     </row>
     <row r="43" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="12" t="s">
@@ -5939,91 +5973,91 @@
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
     </row>
     <row r="45" spans="2:13" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="6"/>
-      <c r="D45" s="9" t="s">
+      <c r="B45" s="5"/>
+      <c r="D45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="6"/>
-      <c r="D46" s="10" t="s">
+      <c r="B46" s="5"/>
+      <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="6"/>
-      <c r="D47" s="9" t="s">
+      <c r="B47" s="5"/>
+      <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
     </row>
     <row r="48" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
     </row>
     <row r="49" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
     </row>
     <row r="50" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="12" t="s">
@@ -6042,77 +6076,77 @@
       <c r="M50" s="12"/>
     </row>
     <row r="51" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
     </row>
     <row r="52" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="6"/>
-      <c r="D52" s="9" t="s">
+      <c r="B52" s="5"/>
+      <c r="D52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
     </row>
     <row r="53" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="6"/>
-      <c r="D53" s="9" t="s">
+      <c r="B53" s="5"/>
+      <c r="D53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="6"/>
-      <c r="D54" s="9" t="s">
+      <c r="B54" s="5"/>
+      <c r="D54" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
     </row>
     <row r="56" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="12" t="s">
@@ -6131,92 +6165,92 @@
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
     </row>
     <row r="58" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B58" s="6"/>
-      <c r="D58" s="9" t="s">
+      <c r="B58" s="5"/>
+      <c r="D58" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
     </row>
     <row r="59" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B59" s="6"/>
-      <c r="D59" s="9" t="s">
+      <c r="B59" s="5"/>
+      <c r="D59" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
     </row>
     <row r="60" spans="2:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B60" s="6"/>
-      <c r="D60" s="9" t="s">
+      <c r="B60" s="5"/>
+      <c r="D60" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
     </row>
     <row r="61" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="6"/>
-      <c r="D61" s="9" t="s">
+      <c r="B61" s="5"/>
+      <c r="D61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
     </row>
     <row r="62" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
     </row>
     <row r="63" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="12" t="s">
@@ -6235,568 +6269,477 @@
       <c r="M63" s="12"/>
     </row>
     <row r="64" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
     </row>
     <row r="65" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="6"/>
-      <c r="D65" s="9" t="s">
+      <c r="B65" s="5"/>
+      <c r="D65" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
     </row>
     <row r="66" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="6"/>
-      <c r="D66" s="9" t="s">
+      <c r="B66" s="5"/>
+      <c r="D66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
     </row>
     <row r="67" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="6"/>
-      <c r="D67" s="9" t="s">
+      <c r="B67" s="5"/>
+      <c r="D67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
     </row>
     <row r="68" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="6"/>
-      <c r="D68" s="10" t="s">
+      <c r="B68" s="5"/>
+      <c r="D68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
     </row>
     <row r="69" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="6"/>
-      <c r="D69" s="10" t="s">
+      <c r="B69" s="5"/>
+      <c r="D69" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
     </row>
     <row r="70" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="6"/>
-      <c r="D70" s="10" t="s">
+      <c r="B70" s="5"/>
+      <c r="D70" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
     </row>
     <row r="71" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="6"/>
-      <c r="D71" s="9" t="s">
+      <c r="B71" s="5"/>
+      <c r="D71" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
     </row>
     <row r="72" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="6"/>
-      <c r="D72" s="9" t="s">
+      <c r="B72" s="5"/>
+      <c r="D72" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
     </row>
     <row r="73" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
     </row>
     <row r="74" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
     </row>
     <row r="75" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
     </row>
     <row r="76" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="6"/>
-      <c r="D76" s="10" t="s">
+      <c r="B76" s="5"/>
+      <c r="D76" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
     </row>
     <row r="77" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="6"/>
-      <c r="D77" s="9" t="s">
+      <c r="B77" s="5"/>
+      <c r="D77" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
     </row>
     <row r="78" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="6"/>
-      <c r="D78" s="9" t="s">
+      <c r="B78" s="5"/>
+      <c r="D78" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
     </row>
     <row r="79" spans="2:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
     </row>
     <row r="80" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
     </row>
     <row r="81" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="6"/>
-      <c r="D82" s="10" t="s">
+      <c r="B82" s="5"/>
+      <c r="D82" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
     </row>
     <row r="83" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="6"/>
-      <c r="D83" s="9" t="s">
+      <c r="B83" s="5"/>
+      <c r="D83" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
     </row>
     <row r="84" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B84" s="6"/>
-      <c r="D84" s="9" t="s">
+      <c r="B84" s="5"/>
+      <c r="D84" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
     </row>
     <row r="85" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B85" s="6"/>
-      <c r="D85" s="9" t="s">
+      <c r="B85" s="5"/>
+      <c r="D85" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B86" s="6"/>
-      <c r="D86" s="9" t="s">
+      <c r="B86" s="5"/>
+      <c r="D86" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
     </row>
     <row r="87" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B87" s="6"/>
-      <c r="D87" s="9" t="s">
+      <c r="B87" s="5"/>
+      <c r="D87" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
     </row>
     <row r="88" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
     </row>
     <row r="89" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
     </row>
     <row r="90" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
     </row>
     <row r="91" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
     </row>
     <row r="92" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
     </row>
     <row r="93" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
     </row>
     <row r="95" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
     </row>
     <row r="96" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="4:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="B39:M39"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="B37:M37"/>
-    <mergeCell ref="B38:M38"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="B42:M42"/>
-    <mergeCell ref="B48:M48"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="B57:M57"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D46:M46"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="B50:M50"/>
-    <mergeCell ref="B51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="B55:M55"/>
-    <mergeCell ref="B56:M56"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="B62:M62"/>
-    <mergeCell ref="B63:M63"/>
-    <mergeCell ref="B64:M64"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D66:M66"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="B73:M73"/>
-    <mergeCell ref="B89:M89"/>
-    <mergeCell ref="B81:M81"/>
-    <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="D84:M84"/>
     <mergeCell ref="B91:M91"/>
     <mergeCell ref="B92:M92"/>
     <mergeCell ref="B93:M93"/>
@@ -6813,6 +6756,81 @@
     <mergeCell ref="D86:M86"/>
     <mergeCell ref="D85:M85"/>
     <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="B73:M73"/>
+    <mergeCell ref="B89:M89"/>
+    <mergeCell ref="B81:M81"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="B62:M62"/>
+    <mergeCell ref="B63:M63"/>
+    <mergeCell ref="B64:M64"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="B57:M57"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="B50:M50"/>
+    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="B55:M55"/>
+    <mergeCell ref="B56:M56"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="B42:M42"/>
+    <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="B39:M39"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="D14:M14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
